--- a/ege192021/p00.xlsx
+++ b/ege192021/p00.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -24,8 +24,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +172,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -383,16 +381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GQ199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:199">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:199">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:199">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:199">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2788,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:199">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:199">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:199" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:199" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:199">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:199">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:199">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6382,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:199">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:199">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7580,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:199">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -8179,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:199">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8778,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:199">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -9377,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:199">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -9976,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:199">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -10575,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:199">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:199">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -11773,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:199">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -12372,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:199">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -12971,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:199">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -13570,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:199">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -14169,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:199">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -14768,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:199">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -15367,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:199">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -15966,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:199">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -16565,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:199">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -17164,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:199">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -17763,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:199">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -18362,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:199">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -18961,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:199">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -19560,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:199">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -20159,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:199">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -20758,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:199">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -21357,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:199">
       <c r="A36">
         <v>4</v>
       </c>
@@ -21956,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:199">
       <c r="A37">
         <v>3</v>
       </c>
@@ -22555,7 +22553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:199">
       <c r="A38">
         <v>1</v>
       </c>
@@ -23154,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:199">
       <c r="A39">
         <v>1</v>
       </c>
@@ -23753,7 +23751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:199">
       <c r="A40">
         <v>1</v>
       </c>
@@ -24352,7 +24350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:199">
       <c r="A41">
         <v>1</v>
       </c>
@@ -24951,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:199">
       <c r="A42">
         <v>1</v>
       </c>
@@ -25550,7 +25548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:199">
       <c r="A43">
         <v>1</v>
       </c>
@@ -26149,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:199">
       <c r="A44">
         <v>1</v>
       </c>
@@ -26748,7 +26746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:199">
       <c r="A45">
         <v>1</v>
       </c>
@@ -27347,7 +27345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:199">
       <c r="A46">
         <v>1</v>
       </c>
@@ -27946,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:199">
       <c r="A47">
         <v>1</v>
       </c>
@@ -28545,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:199">
       <c r="A48">
         <v>1</v>
       </c>
@@ -29144,7 +29142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:199">
       <c r="A49">
         <v>1</v>
       </c>
@@ -29743,7 +29741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:199">
       <c r="A50">
         <v>1</v>
       </c>
@@ -30342,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:199">
       <c r="A51">
         <v>1</v>
       </c>
@@ -30941,7 +30939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:199">
       <c r="A52">
         <v>1</v>
       </c>
@@ -31540,7 +31538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:199">
       <c r="A53">
         <v>1</v>
       </c>
@@ -32139,7 +32137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:199">
       <c r="A54">
         <v>1</v>
       </c>
@@ -32738,7 +32736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:199">
       <c r="A55">
         <v>1</v>
       </c>
@@ -33337,7 +33335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:199">
       <c r="A56">
         <v>1</v>
       </c>
@@ -33936,7 +33934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:199">
       <c r="A57">
         <v>1</v>
       </c>
@@ -34535,7 +34533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:199">
       <c r="A58">
         <v>1</v>
       </c>
@@ -35134,7 +35132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:199">
       <c r="A59">
         <v>1</v>
       </c>
@@ -35733,7 +35731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:199">
       <c r="A60">
         <v>1</v>
       </c>
@@ -36332,7 +36330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:199">
       <c r="A61">
         <v>1</v>
       </c>
@@ -36931,7 +36929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:199">
       <c r="A62">
         <v>1</v>
       </c>
@@ -37530,7 +37528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:199">
       <c r="A63">
         <v>1</v>
       </c>
@@ -38129,7 +38127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:199">
       <c r="A64">
         <v>1</v>
       </c>
@@ -38728,7 +38726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:199">
       <c r="A65">
         <v>1</v>
       </c>
@@ -39327,7 +39325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:199">
       <c r="A66">
         <v>1</v>
       </c>
@@ -39926,7 +39924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:199">
       <c r="A67">
         <v>1</v>
       </c>
@@ -40525,7 +40523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:199">
       <c r="A68">
         <v>1</v>
       </c>
@@ -41124,7 +41122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:199">
       <c r="A69">
         <v>1</v>
       </c>
@@ -41723,7 +41721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:199">
       <c r="A70">
         <v>1</v>
       </c>
@@ -42322,7 +42320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:199">
       <c r="A71">
         <v>1</v>
       </c>
@@ -42921,7 +42919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:199">
       <c r="A72">
         <v>1</v>
       </c>
@@ -43520,7 +43518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:199">
       <c r="A73">
         <v>1</v>
       </c>
@@ -44119,7 +44117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:199">
       <c r="A74">
         <v>1</v>
       </c>
@@ -44718,7 +44716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:199">
       <c r="A75">
         <v>1</v>
       </c>
@@ -45317,7 +45315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:199">
       <c r="A76">
         <v>0</v>
       </c>
@@ -45916,7 +45914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:199">
       <c r="A77">
         <v>0</v>
       </c>
@@ -46515,7 +46513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:199">
       <c r="A78">
         <v>0</v>
       </c>
@@ -47114,7 +47112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:199">
       <c r="A79">
         <v>0</v>
       </c>
@@ -47713,7 +47711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:199">
       <c r="A80">
         <v>0</v>
       </c>
@@ -48312,7 +48310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:199">
       <c r="A81">
         <v>0</v>
       </c>
@@ -48911,7 +48909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:199">
       <c r="A82">
         <v>0</v>
       </c>
@@ -49510,7 +49508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:199">
       <c r="A83">
         <v>0</v>
       </c>
@@ -50109,7 +50107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:199">
       <c r="A84">
         <v>0</v>
       </c>
@@ -50708,7 +50706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:199">
       <c r="A85">
         <v>0</v>
       </c>
@@ -51307,7 +51305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:199">
       <c r="A86">
         <v>0</v>
       </c>
@@ -51906,7 +51904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:199">
       <c r="A87">
         <v>0</v>
       </c>
@@ -52505,7 +52503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:199">
       <c r="A88">
         <v>0</v>
       </c>
@@ -53104,7 +53102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:199">
       <c r="A89">
         <v>0</v>
       </c>
@@ -53703,7 +53701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:199">
       <c r="A90">
         <v>0</v>
       </c>
@@ -54302,7 +54300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:199">
       <c r="A91">
         <v>0</v>
       </c>
@@ -54901,7 +54899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:199">
       <c r="A92">
         <v>0</v>
       </c>
@@ -55500,7 +55498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:199">
       <c r="A93">
         <v>0</v>
       </c>
@@ -56099,7 +56097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:199">
       <c r="A94">
         <v>0</v>
       </c>
@@ -56698,7 +56696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:199">
       <c r="A95">
         <v>0</v>
       </c>
@@ -57297,7 +57295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:199">
       <c r="A96">
         <v>0</v>
       </c>
@@ -57896,7 +57894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:199">
       <c r="A97">
         <v>0</v>
       </c>
@@ -58495,7 +58493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:199">
       <c r="A98">
         <v>0</v>
       </c>
@@ -59094,7 +59092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:199">
       <c r="A99">
         <v>0</v>
       </c>
@@ -59693,7 +59691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:199">
       <c r="A100">
         <v>0</v>
       </c>
@@ -60292,7 +60290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:199">
       <c r="A101">
         <v>0</v>
       </c>
@@ -60891,7 +60889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:199">
       <c r="A102">
         <v>0</v>
       </c>
@@ -61490,7 +61488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:199">
       <c r="A103">
         <v>0</v>
       </c>
@@ -62089,7 +62087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:199">
       <c r="A104">
         <v>0</v>
       </c>
@@ -62688,7 +62686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:199">
       <c r="A105">
         <v>0</v>
       </c>
@@ -63287,7 +63285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:199">
       <c r="A106">
         <v>0</v>
       </c>
@@ -63886,7 +63884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:199">
       <c r="A107">
         <v>0</v>
       </c>
@@ -64485,7 +64483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:199">
       <c r="A108">
         <v>0</v>
       </c>
@@ -65084,7 +65082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:199">
       <c r="A109">
         <v>0</v>
       </c>
@@ -65683,7 +65681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:199">
       <c r="A110">
         <v>0</v>
       </c>
@@ -66282,7 +66280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:199">
       <c r="A111">
         <v>0</v>
       </c>
@@ -66881,7 +66879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:199">
       <c r="A112">
         <v>0</v>
       </c>
@@ -67480,7 +67478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:199">
       <c r="A113">
         <v>0</v>
       </c>
@@ -68079,7 +68077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:199">
       <c r="A114">
         <v>0</v>
       </c>
@@ -68678,7 +68676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:199">
       <c r="A115">
         <v>0</v>
       </c>
@@ -69277,7 +69275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:199">
       <c r="A116">
         <v>0</v>
       </c>
@@ -69876,7 +69874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:199">
       <c r="A117">
         <v>0</v>
       </c>
@@ -70475,7 +70473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:199">
       <c r="A118">
         <v>0</v>
       </c>
@@ -71074,7 +71072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:199">
       <c r="A119">
         <v>0</v>
       </c>
@@ -71673,7 +71671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:199">
       <c r="A120">
         <v>0</v>
       </c>
@@ -72272,7 +72270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:199">
       <c r="A121">
         <v>0</v>
       </c>
@@ -72871,7 +72869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:199">
       <c r="A122">
         <v>0</v>
       </c>
@@ -73470,7 +73468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:199">
       <c r="A123">
         <v>0</v>
       </c>
@@ -74069,7 +74067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:199">
       <c r="A124">
         <v>0</v>
       </c>
@@ -74668,7 +74666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:199">
       <c r="A125">
         <v>0</v>
       </c>
@@ -75267,7 +75265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:199">
       <c r="A126">
         <v>0</v>
       </c>
@@ -75866,7 +75864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:199">
       <c r="A127">
         <v>0</v>
       </c>
@@ -76465,7 +76463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:199">
       <c r="A128">
         <v>0</v>
       </c>
@@ -77064,7 +77062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:199">
       <c r="A129">
         <v>0</v>
       </c>
@@ -77663,7 +77661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:199">
       <c r="A130">
         <v>0</v>
       </c>
@@ -78262,7 +78260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:199">
       <c r="A131">
         <v>0</v>
       </c>
@@ -78861,7 +78859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:199">
       <c r="A132">
         <v>0</v>
       </c>
@@ -79460,7 +79458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:199">
       <c r="A133">
         <v>0</v>
       </c>
@@ -80059,7 +80057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:199">
       <c r="A134">
         <v>0</v>
       </c>
@@ -80658,7 +80656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:199">
       <c r="A135">
         <v>0</v>
       </c>
@@ -81257,7 +81255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:199">
       <c r="A136">
         <v>0</v>
       </c>
@@ -81856,7 +81854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:199">
       <c r="A137">
         <v>0</v>
       </c>
@@ -82455,7 +82453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:199">
       <c r="A138">
         <v>0</v>
       </c>
@@ -83054,7 +83052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:199">
       <c r="A139">
         <v>0</v>
       </c>
@@ -83653,7 +83651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:199">
       <c r="A140">
         <v>0</v>
       </c>
@@ -84252,7 +84250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:199">
       <c r="A141">
         <v>0</v>
       </c>
@@ -84851,7 +84849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:199">
       <c r="A142">
         <v>0</v>
       </c>
@@ -85450,7 +85448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:199">
       <c r="A143">
         <v>0</v>
       </c>
@@ -86049,7 +86047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:199">
       <c r="A144">
         <v>0</v>
       </c>
@@ -86648,7 +86646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:199">
       <c r="A145">
         <v>0</v>
       </c>
@@ -87247,7 +87245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:199">
       <c r="A146">
         <v>0</v>
       </c>
@@ -87846,7 +87844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:199">
       <c r="A147">
         <v>0</v>
       </c>
@@ -88445,7 +88443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:199">
       <c r="A148">
         <v>0</v>
       </c>
@@ -89044,7 +89042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:199">
       <c r="A149">
         <v>0</v>
       </c>
@@ -89643,7 +89641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:199">
       <c r="A150">
         <v>0</v>
       </c>
@@ -90242,7 +90240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:199">
       <c r="A151">
         <v>0</v>
       </c>
@@ -90841,7 +90839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:199">
       <c r="A152">
         <v>0</v>
       </c>
@@ -91440,7 +91438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:199">
       <c r="A153">
         <v>0</v>
       </c>
@@ -92039,7 +92037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:199">
       <c r="A154">
         <v>0</v>
       </c>
@@ -92638,7 +92636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:199">
       <c r="A155">
         <v>0</v>
       </c>
@@ -93237,7 +93235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:199">
       <c r="A156">
         <v>0</v>
       </c>
@@ -93836,7 +93834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:199">
       <c r="A157">
         <v>0</v>
       </c>
@@ -94435,7 +94433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:199">
       <c r="A158">
         <v>0</v>
       </c>
@@ -95034,7 +95032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:199">
       <c r="A159">
         <v>0</v>
       </c>
@@ -95633,7 +95631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:199">
       <c r="A160">
         <v>0</v>
       </c>
@@ -96232,7 +96230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:199">
       <c r="A161">
         <v>0</v>
       </c>
@@ -96831,7 +96829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:199">
       <c r="A162">
         <v>0</v>
       </c>
@@ -97430,7 +97428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:199">
       <c r="A163">
         <v>0</v>
       </c>
@@ -98029,7 +98027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:199">
       <c r="A164">
         <v>0</v>
       </c>
@@ -98628,7 +98626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:199">
       <c r="A165">
         <v>0</v>
       </c>
@@ -99227,7 +99225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:199">
       <c r="A166">
         <v>0</v>
       </c>
@@ -99826,7 +99824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:199">
       <c r="A167">
         <v>0</v>
       </c>
@@ -100425,7 +100423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:199">
       <c r="A168">
         <v>0</v>
       </c>
@@ -101024,7 +101022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:199">
       <c r="A169">
         <v>0</v>
       </c>
@@ -101623,7 +101621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:199">
       <c r="A170">
         <v>0</v>
       </c>
@@ -102222,7 +102220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:199">
       <c r="A171">
         <v>0</v>
       </c>
@@ -102821,7 +102819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:199">
       <c r="A172">
         <v>0</v>
       </c>
@@ -103420,7 +103418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:199">
       <c r="A173">
         <v>0</v>
       </c>
@@ -104019,7 +104017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:199">
       <c r="A174">
         <v>0</v>
       </c>
@@ -104618,7 +104616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:199">
       <c r="A175">
         <v>0</v>
       </c>
@@ -105217,7 +105215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:199">
       <c r="A176">
         <v>0</v>
       </c>
@@ -105816,7 +105814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:199">
       <c r="A177">
         <v>0</v>
       </c>
@@ -106415,7 +106413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:199">
       <c r="A178">
         <v>0</v>
       </c>
@@ -107014,7 +107012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:199">
       <c r="A179">
         <v>0</v>
       </c>
@@ -107613,7 +107611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:199">
       <c r="A180">
         <v>0</v>
       </c>
@@ -108212,7 +108210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:199">
       <c r="A181">
         <v>0</v>
       </c>
@@ -108811,7 +108809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:199">
       <c r="A182">
         <v>0</v>
       </c>
@@ -109410,7 +109408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:199">
       <c r="A183">
         <v>0</v>
       </c>
@@ -110009,7 +110007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:199">
       <c r="A184">
         <v>0</v>
       </c>
@@ -110608,7 +110606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:199">
       <c r="A185">
         <v>0</v>
       </c>
@@ -111207,7 +111205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:199">
       <c r="A186">
         <v>0</v>
       </c>
@@ -111806,7 +111804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:199">
       <c r="A187">
         <v>0</v>
       </c>
@@ -112405,7 +112403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:199">
       <c r="A188">
         <v>0</v>
       </c>
@@ -113004,7 +113002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:199">
       <c r="A189">
         <v>0</v>
       </c>
@@ -113603,7 +113601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:199">
       <c r="A190">
         <v>0</v>
       </c>
@@ -114202,7 +114200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:199">
       <c r="A191">
         <v>0</v>
       </c>
@@ -114801,7 +114799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:199">
       <c r="A192">
         <v>0</v>
       </c>
@@ -115400,7 +115398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:199">
       <c r="A193">
         <v>0</v>
       </c>
@@ -115999,7 +115997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:199">
       <c r="A194">
         <v>0</v>
       </c>
@@ -116598,7 +116596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:199">
       <c r="A195">
         <v>0</v>
       </c>
@@ -117197,7 +117195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:199">
       <c r="A196">
         <v>0</v>
       </c>
@@ -117796,7 +117794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:199">
       <c r="A197">
         <v>0</v>
       </c>
@@ -118395,7 +118393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:199">
       <c r="A198">
         <v>0</v>
       </c>
@@ -118994,7 +118992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:199">
       <c r="A199">
         <v>0</v>
       </c>
@@ -119597,9 +119595,9 @@
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -119611,24 +119609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
